--- a/Tariffs.xlsx
+++ b/Tariffs.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tariffs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
   <si>
     <t xml:space="preserve">TariffName</t>
   </si>
@@ -55,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,8 +118,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -136,67 +144,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>80</v>
       </c>
     </row>
